--- a/server/input/Spreadsheet_Showcase.xlsx
+++ b/server/input/Spreadsheet_Showcase.xlsx
@@ -590,12 +590,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -953,13 +953,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1067,7 +1067,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="12">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>30</v>
